--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H2">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I2">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J2">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9148776666666666</v>
+        <v>0.002213333333333333</v>
       </c>
       <c r="N2">
-        <v>2.744633</v>
+        <v>0.00664</v>
       </c>
       <c r="O2">
-        <v>0.9313175952980666</v>
+        <v>0.03176273618751495</v>
       </c>
       <c r="P2">
-        <v>0.9313175952980666</v>
+        <v>0.03176273618751495</v>
       </c>
       <c r="Q2">
-        <v>4.163572580771</v>
+        <v>0.01257730208</v>
       </c>
       <c r="R2">
-        <v>37.472153226939</v>
+        <v>0.11319571872</v>
       </c>
       <c r="S2">
-        <v>0.3707094573975359</v>
+        <v>0.01436498065321518</v>
       </c>
       <c r="T2">
-        <v>0.3707094573975359</v>
+        <v>0.01436498065321518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H3">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I3">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J3">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.188597</v>
       </c>
       <c r="O3">
-        <v>0.06399533362763964</v>
+        <v>0.9021621621621622</v>
       </c>
       <c r="P3">
-        <v>0.06399533362763965</v>
+        <v>0.9021621621621622</v>
       </c>
       <c r="Q3">
-        <v>0.286099197239</v>
+        <v>0.357235156684</v>
       </c>
       <c r="R3">
-        <v>2.574892775151</v>
+        <v>3.215116410156</v>
       </c>
       <c r="S3">
-        <v>0.02547323869413618</v>
+        <v>0.4080108819660276</v>
       </c>
       <c r="T3">
-        <v>0.02547323869413619</v>
+        <v>0.4080108819660277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H4">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I4">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J4">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004604333333333333</v>
+        <v>0.004604333333333334</v>
       </c>
       <c r="N4">
         <v>0.013813</v>
       </c>
       <c r="O4">
-        <v>0.004687071074293792</v>
+        <v>0.06607510165032289</v>
       </c>
       <c r="P4">
-        <v>0.004687071074293792</v>
+        <v>0.06607510165032289</v>
       </c>
       <c r="Q4">
-        <v>0.020954141431</v>
+        <v>0.026164197836</v>
       </c>
       <c r="R4">
-        <v>0.188587272879</v>
+        <v>0.235477780524</v>
       </c>
       <c r="S4">
-        <v>0.001865681034598127</v>
+        <v>0.02988305387994899</v>
       </c>
       <c r="T4">
-        <v>0.001865681034598128</v>
+        <v>0.029883053879949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>16.347735</v>
       </c>
       <c r="I5">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J5">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9148776666666666</v>
+        <v>0.002213333333333333</v>
       </c>
       <c r="N5">
-        <v>2.744633</v>
+        <v>0.00664</v>
       </c>
       <c r="O5">
-        <v>0.9313175952980666</v>
+        <v>0.03176273618751495</v>
       </c>
       <c r="P5">
-        <v>0.9313175952980666</v>
+        <v>0.03176273618751495</v>
       </c>
       <c r="Q5">
-        <v>4.985392550695</v>
+        <v>0.0120609956</v>
       </c>
       <c r="R5">
-        <v>44.868532956255</v>
+        <v>0.1085489604</v>
       </c>
       <c r="S5">
-        <v>0.4438813378484754</v>
+        <v>0.01377528879806578</v>
       </c>
       <c r="T5">
-        <v>0.4438813378484753</v>
+        <v>0.01377528879806578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.347735</v>
       </c>
       <c r="I6">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J6">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.188597</v>
       </c>
       <c r="O6">
-        <v>0.06399533362763964</v>
+        <v>0.9021621621621622</v>
       </c>
       <c r="P6">
-        <v>0.06399533362763965</v>
+        <v>0.9021621621621622</v>
       </c>
       <c r="Q6">
         <v>0.342570419755</v>
@@ -818,10 +818,10 @@
         <v>3.083133777795</v>
       </c>
       <c r="S6">
-        <v>0.03050123228650567</v>
+        <v>0.3912617682904837</v>
       </c>
       <c r="T6">
-        <v>0.03050123228650567</v>
+        <v>0.3912617682904838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.347735</v>
       </c>
       <c r="I7">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J7">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,16 +862,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.004604333333333333</v>
+        <v>0.004604333333333334</v>
       </c>
       <c r="N7">
         <v>0.013813</v>
       </c>
       <c r="O7">
-        <v>0.004687071074293792</v>
+        <v>0.06607510165032289</v>
       </c>
       <c r="P7">
-        <v>0.004687071074293792</v>
+        <v>0.06607510165032289</v>
       </c>
       <c r="Q7">
         <v>0.025090140395</v>
@@ -880,10 +880,10 @@
         <v>0.225811263555</v>
       </c>
       <c r="S7">
-        <v>0.002233935436796464</v>
+        <v>0.02865633496501244</v>
       </c>
       <c r="T7">
-        <v>0.002233935436796464</v>
+        <v>0.02865633496501245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>4.298939</v>
       </c>
       <c r="I8">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J8">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.9148776666666666</v>
+        <v>0.002213333333333333</v>
       </c>
       <c r="N8">
-        <v>2.744633</v>
+        <v>0.00664</v>
       </c>
       <c r="O8">
-        <v>0.9313175952980666</v>
+        <v>0.03176273618751495</v>
       </c>
       <c r="P8">
-        <v>0.9313175952980666</v>
+        <v>0.03176273618751495</v>
       </c>
       <c r="Q8">
-        <v>1.311001093820777</v>
+        <v>0.003171661662222222</v>
       </c>
       <c r="R8">
-        <v>11.799009844387</v>
+        <v>0.02854495496</v>
       </c>
       <c r="S8">
-        <v>0.1167268000520553</v>
+        <v>0.003622466736233986</v>
       </c>
       <c r="T8">
-        <v>0.1167268000520553</v>
+        <v>0.003622466736233987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.298939</v>
       </c>
       <c r="I9">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J9">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.188597</v>
       </c>
       <c r="O9">
-        <v>0.06399533362763964</v>
+        <v>0.9021621621621622</v>
       </c>
       <c r="P9">
-        <v>0.06399533362763965</v>
+        <v>0.9021621621621622</v>
       </c>
       <c r="Q9">
         <v>0.09008522206477777</v>
@@ -1004,10 +1004,10 @@
         <v>0.8107669985830001</v>
       </c>
       <c r="S9">
-        <v>0.008020862646997787</v>
+        <v>0.1028895119056508</v>
       </c>
       <c r="T9">
-        <v>0.008020862646997789</v>
+        <v>0.1028895119056508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.298939</v>
       </c>
       <c r="I10">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J10">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.004604333333333333</v>
+        <v>0.004604333333333334</v>
       </c>
       <c r="N10">
         <v>0.013813</v>
       </c>
       <c r="O10">
-        <v>0.004687071074293792</v>
+        <v>0.06607510165032289</v>
       </c>
       <c r="P10">
-        <v>0.004687071074293792</v>
+        <v>0.06607510165032289</v>
       </c>
       <c r="Q10">
-        <v>0.006597916045222221</v>
+        <v>0.006597916045222222</v>
       </c>
       <c r="R10">
         <v>0.059381244407</v>
       </c>
       <c r="S10">
-        <v>0.0005874546028992</v>
+        <v>0.007535712805361453</v>
       </c>
       <c r="T10">
-        <v>0.0005874546028992</v>
+        <v>0.007535712805361455</v>
       </c>
     </row>
   </sheetData>
